--- a/Supplementary_data/Supplementary Questions.xlsx
+++ b/Supplementary_data/Supplementary Questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMLRE\TAXObot\Paper_review\Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMLRE\TAXObot\Supplementary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592331B8-501E-4973-AC16-D0D078CEDF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7437F-2452-4D8D-8810-D85DE7B250FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{045BB3DA-3FDC-4E38-A40A-C8F16D9D1422}"/>
   </bookViews>
@@ -13470,18 +13470,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -13511,12 +13505,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13834,7 +13831,7 @@
   <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B501"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13844,106 +13841,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
